--- a/excel_with_subclasses/with_count/body_of_water_with_count.xlsx
+++ b/excel_with_subclasses/with_count/body_of_water_with_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="515">
   <si>
     <t>subclass</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Q459297</t>
   </si>
   <si>
-    <t>Q34038</t>
-  </si>
-  <si>
-    <t>Q35666</t>
-  </si>
-  <si>
     <t>Q1210950</t>
   </si>
   <si>
@@ -70,21 +64,12 @@
     <t>Q170321</t>
   </si>
   <si>
-    <t>Q491713</t>
-  </si>
-  <si>
-    <t>Q37901</t>
-  </si>
-  <si>
     <t>Q655311</t>
   </si>
   <si>
     <t>Q55465477</t>
   </si>
   <si>
-    <t>Q5926864</t>
-  </si>
-  <si>
     <t>Q55463449</t>
   </si>
   <si>
@@ -94,12 +79,6 @@
     <t>Q695793</t>
   </si>
   <si>
-    <t>Q88480</t>
-  </si>
-  <si>
-    <t>Q63565252</t>
-  </si>
-  <si>
     <t>Q319714</t>
   </si>
   <si>
@@ -109,9 +88,6 @@
     <t>Q10952797</t>
   </si>
   <si>
-    <t>Q177380</t>
-  </si>
-  <si>
     <t>Q3215290</t>
   </si>
   <si>
@@ -148,12 +124,12 @@
     <t>Q1030403</t>
   </si>
   <si>
+    <t>Q55468590</t>
+  </si>
+  <si>
     <t>Q50192007</t>
   </si>
   <si>
-    <t>Q55468590</t>
-  </si>
-  <si>
     <t>Q1172903</t>
   </si>
   <si>
@@ -169,15 +145,9 @@
     <t>Q992837</t>
   </si>
   <si>
-    <t>Q83471</t>
-  </si>
-  <si>
     <t>Q13359600</t>
   </si>
   <si>
-    <t>Q1310961</t>
-  </si>
-  <si>
     <t>Q1361400</t>
   </si>
   <si>
@@ -187,9 +157,6 @@
     <t>Q42055295</t>
   </si>
   <si>
-    <t>Q46966</t>
-  </si>
-  <si>
     <t>Q3500933</t>
   </si>
   <si>
@@ -217,51 +184,45 @@
     <t>Q41982239</t>
   </si>
   <si>
+    <t>Q1792401</t>
+  </si>
+  <si>
     <t>Q34891928</t>
   </si>
   <si>
-    <t>Q1792401</t>
+    <t>Q573344</t>
   </si>
   <si>
     <t>Q6966332</t>
   </si>
   <si>
-    <t>Q573344</t>
-  </si>
-  <si>
     <t>Q514050</t>
   </si>
   <si>
-    <t>Q2540532</t>
+    <t>Q590992</t>
   </si>
   <si>
     <t>Q13218676</t>
   </si>
   <si>
-    <t>Q878077</t>
-  </si>
-  <si>
-    <t>Q590992</t>
+    <t>Q7376362</t>
+  </si>
+  <si>
+    <t>Q11802343</t>
   </si>
   <si>
     <t>Q18870689</t>
   </si>
   <si>
-    <t>Q7376362</t>
-  </si>
-  <si>
-    <t>Q11802343</t>
-  </si>
-  <si>
     <t>Q15942175</t>
   </si>
   <si>
+    <t>Q1365924</t>
+  </si>
+  <si>
     <t>Q28129994</t>
   </si>
   <si>
-    <t>Q1365924</t>
-  </si>
-  <si>
     <t>Q15842515</t>
   </si>
   <si>
@@ -274,88 +235,79 @@
     <t>Q11566792</t>
   </si>
   <si>
-    <t>Q12599</t>
+    <t>Q11177275</t>
   </si>
   <si>
     <t>Q27067659</t>
   </si>
   <si>
-    <t>Q11177275</t>
-  </si>
-  <si>
-    <t>Q11762356</t>
-  </si>
-  <si>
-    <t>Q2967706</t>
-  </si>
-  <si>
     <t>Q28109822</t>
   </si>
   <si>
+    <t>Q291099</t>
+  </si>
+  <si>
+    <t>Q3909778</t>
+  </si>
+  <si>
     <t>Q3046709</t>
   </si>
   <si>
     <t>Q85842470</t>
   </si>
   <si>
-    <t>Q3909778</t>
-  </si>
-  <si>
     <t>Q1414773</t>
   </si>
   <si>
+    <t>Q694167</t>
+  </si>
+  <si>
+    <t>Q1413117</t>
+  </si>
+  <si>
     <t>Q708457</t>
   </si>
   <si>
-    <t>Q694167</t>
-  </si>
-  <si>
-    <t>Q1413117</t>
+    <t>Q47568</t>
   </si>
   <si>
     <t>Q57273768</t>
   </si>
   <si>
-    <t>Q47568</t>
+    <t>Q21079327</t>
+  </si>
+  <si>
+    <t>Q899514</t>
+  </si>
+  <si>
+    <t>Q447555</t>
   </si>
   <si>
     <t>Q17165541</t>
   </si>
   <si>
-    <t>Q447555</t>
-  </si>
-  <si>
-    <t>Q558116</t>
-  </si>
-  <si>
-    <t>Q899514</t>
-  </si>
-  <si>
     <t>Q7541461</t>
   </si>
   <si>
-    <t>Q21079327</t>
-  </si>
-  <si>
     <t>Q2431801</t>
   </si>
   <si>
+    <t>Q28455153</t>
+  </si>
+  <si>
     <t>Q4792460</t>
   </si>
   <si>
     <t>Q7167858</t>
   </si>
   <si>
-    <t>Q28455153</t>
-  </si>
-  <si>
-    <t>Q2264838</t>
+    <t>Q12054316</t>
   </si>
   <si>
     <t>Q69997952</t>
   </si>
   <si>
-    <t>Q12054316</t>
+    <t>Q1103796</t>
   </si>
   <si>
     <t>Q3074486</t>
@@ -364,130 +316,142 @@
     <t>Q61457040</t>
   </si>
   <si>
-    <t>Q5985490</t>
-  </si>
-  <si>
-    <t>Q1103796</t>
-  </si>
-  <si>
     <t>Q2507626</t>
   </si>
   <si>
+    <t>Q910817</t>
+  </si>
+  <si>
+    <t>Q57208177</t>
+  </si>
+  <si>
+    <t>Q1320719</t>
+  </si>
+  <si>
     <t>Q2923911</t>
   </si>
   <si>
-    <t>Q57208177</t>
-  </si>
-  <si>
-    <t>Q910817</t>
-  </si>
-  <si>
-    <t>Q1320719</t>
-  </si>
-  <si>
-    <t>Q2406037</t>
-  </si>
-  <si>
     <t>Q2890064</t>
   </si>
   <si>
     <t>Q812585</t>
   </si>
   <si>
+    <t>Q1844833</t>
+  </si>
+  <si>
+    <t>Q4925171</t>
+  </si>
+  <si>
+    <t>Q4250086</t>
+  </si>
+  <si>
+    <t>Q7112064</t>
+  </si>
+  <si>
+    <t>Q21550629</t>
+  </si>
+  <si>
+    <t>Q7205721</t>
+  </si>
+  <si>
+    <t>Q10671833</t>
+  </si>
+  <si>
+    <t>Q7300165</t>
+  </si>
+  <si>
     <t>Q65073670</t>
   </si>
   <si>
-    <t>Q4250086</t>
-  </si>
-  <si>
-    <t>Q4925171</t>
+    <t>Q34338776</t>
+  </si>
+  <si>
+    <t>Q3058856</t>
   </si>
   <si>
     <t>Q1427694</t>
   </si>
   <si>
-    <t>Q867648</t>
-  </si>
-  <si>
-    <t>Q34338776</t>
-  </si>
-  <si>
-    <t>Q10671833</t>
-  </si>
-  <si>
-    <t>Q1844833</t>
-  </si>
-  <si>
-    <t>Q7112064</t>
-  </si>
-  <si>
-    <t>Q3058856</t>
-  </si>
-  <si>
-    <t>Q7205721</t>
-  </si>
-  <si>
-    <t>Q7300165</t>
+    <t>Q21029914</t>
+  </si>
+  <si>
+    <t>Q83287935</t>
+  </si>
+  <si>
+    <t>Q20018921</t>
+  </si>
+  <si>
+    <t>Q8026426</t>
+  </si>
+  <si>
+    <t>Q12099220</t>
+  </si>
+  <si>
+    <t>Q923791</t>
+  </si>
+  <si>
+    <t>Q5068817</t>
   </si>
   <si>
     <t>Q911608</t>
   </si>
   <si>
-    <t>Q923791</t>
-  </si>
-  <si>
-    <t>Q5068817</t>
-  </si>
-  <si>
-    <t>Q27966643</t>
-  </si>
-  <si>
-    <t>Q1234707</t>
-  </si>
-  <si>
-    <t>Q12099220</t>
-  </si>
-  <si>
-    <t>Q23579772</t>
-  </si>
-  <si>
-    <t>Q83287935</t>
+    <t>Q36449705</t>
   </si>
   <si>
     <t>Q64502858</t>
   </si>
   <si>
-    <t>Q2238314</t>
-  </si>
-  <si>
-    <t>Q884736</t>
-  </si>
-  <si>
-    <t>Q8026426</t>
-  </si>
-  <si>
-    <t>Q1286914</t>
-  </si>
-  <si>
     <t>Q3391202</t>
   </si>
   <si>
     <t>Q57208171</t>
   </si>
   <si>
-    <t>Q36449705</t>
-  </si>
-  <si>
-    <t>Q21550629</t>
-  </si>
-  <si>
-    <t>Q21029914</t>
-  </si>
-  <si>
-    <t>Q20018921</t>
-  </si>
-  <si>
-    <t>Q11762358</t>
+    <t>Q891537</t>
+  </si>
+  <si>
+    <t>Q2929728</t>
+  </si>
+  <si>
+    <t>Q14556915</t>
+  </si>
+  <si>
+    <t>Q1837011</t>
+  </si>
+  <si>
+    <t>Q8078936</t>
+  </si>
+  <si>
+    <t>Q688784</t>
+  </si>
+  <si>
+    <t>Q2570370</t>
+  </si>
+  <si>
+    <t>Q11078915</t>
+  </si>
+  <si>
+    <t>Q863944</t>
+  </si>
+  <si>
+    <t>Q1553200</t>
+  </si>
+  <si>
+    <t>Q57208181</t>
+  </si>
+  <si>
+    <t>Q21504956</t>
+  </si>
+  <si>
+    <t>Q57208127</t>
+  </si>
+  <si>
+    <t>Q7658373</t>
+  </si>
+  <si>
+    <t>Q15517598</t>
   </si>
   <si>
     <t>Q26269133</t>
@@ -496,363 +460,255 @@
     <t>Q75304241</t>
   </si>
   <si>
-    <t>Q891537</t>
-  </si>
-  <si>
-    <t>Q2929728</t>
-  </si>
-  <si>
-    <t>Q11078915</t>
-  </si>
-  <si>
-    <t>Q12487785</t>
-  </si>
-  <si>
-    <t>Q57208127</t>
-  </si>
-  <si>
-    <t>Q57208181</t>
-  </si>
-  <si>
-    <t>Q2570370</t>
-  </si>
-  <si>
-    <t>Q12053053</t>
-  </si>
-  <si>
-    <t>Q60663471</t>
-  </si>
-  <si>
-    <t>Q21504956</t>
-  </si>
-  <si>
-    <t>Q14556915</t>
-  </si>
-  <si>
-    <t>Q7658373</t>
-  </si>
-  <si>
-    <t>Q863944</t>
-  </si>
-  <si>
     <t>Q3696707</t>
   </si>
   <si>
-    <t>Q15517598</t>
-  </si>
-  <si>
-    <t>Q18642275</t>
-  </si>
-  <si>
-    <t>Q8078936</t>
-  </si>
-  <si>
-    <t>Q688784</t>
-  </si>
-  <si>
-    <t>Q1837011</t>
-  </si>
-  <si>
-    <t>Q1553200</t>
+    <t>Q61748349</t>
+  </si>
+  <si>
+    <t>Q61748363</t>
+  </si>
+  <si>
+    <t>Q61748425</t>
+  </si>
+  <si>
+    <t>Q61748391</t>
+  </si>
+  <si>
+    <t>Q61748421</t>
+  </si>
+  <si>
+    <t>Q61749484</t>
+  </si>
+  <si>
+    <t>Q61748401</t>
+  </si>
+  <si>
+    <t>Q61749170</t>
+  </si>
+  <si>
+    <t>Q16669588</t>
+  </si>
+  <si>
+    <t>Q62059368</t>
+  </si>
+  <si>
+    <t>Q7632182</t>
+  </si>
+  <si>
+    <t>Q93441425</t>
+  </si>
+  <si>
+    <t>Q9311910</t>
+  </si>
+  <si>
+    <t>Q84048354</t>
+  </si>
+  <si>
+    <t>Q8242648</t>
+  </si>
+  <si>
+    <t>Q81219064</t>
+  </si>
+  <si>
+    <t>Q7809986</t>
+  </si>
+  <si>
+    <t>Q7553432</t>
+  </si>
+  <si>
+    <t>Q62562206</t>
+  </si>
+  <si>
+    <t>Q61748280</t>
   </si>
   <si>
     <t>Q7198250</t>
   </si>
   <si>
-    <t>Q9311910</t>
+    <t>Q7017640</t>
   </si>
   <si>
     <t>Q66764728</t>
   </si>
   <si>
-    <t>Q61748280</t>
+    <t>Q11285599</t>
+  </si>
+  <si>
+    <t>Q63316629</t>
   </si>
   <si>
     <t>Q61748291</t>
   </si>
   <si>
-    <t>Q93441425</t>
+    <t>Q4930097</t>
   </si>
   <si>
     <t>Q61606952</t>
   </si>
   <si>
-    <t>Q7632182</t>
-  </si>
-  <si>
-    <t>Q7553432</t>
-  </si>
-  <si>
-    <t>Q95348900</t>
+    <t>Q2474940</t>
+  </si>
+  <si>
+    <t>Q3449157</t>
+  </si>
+  <si>
+    <t>Q3400208</t>
+  </si>
+  <si>
+    <t>Q332716</t>
+  </si>
+  <si>
+    <t>Q3199193</t>
+  </si>
+  <si>
+    <t>Q14405085</t>
+  </si>
+  <si>
+    <t>Q1444790</t>
+  </si>
+  <si>
+    <t>Q3033403</t>
+  </si>
+  <si>
+    <t>Q28861769</t>
+  </si>
+  <si>
+    <t>Q2855957</t>
+  </si>
+  <si>
+    <t>Q2653463</t>
+  </si>
+  <si>
+    <t>Q2478921</t>
+  </si>
+  <si>
+    <t>Q2411633</t>
+  </si>
+  <si>
+    <t>Q13398859</t>
+  </si>
+  <si>
+    <t>Q2354300</t>
+  </si>
+  <si>
+    <t>Q2153116</t>
+  </si>
+  <si>
+    <t>Q213926</t>
+  </si>
+  <si>
+    <t>Q2092855</t>
+  </si>
+  <si>
+    <t>Q2043393</t>
+  </si>
+  <si>
+    <t>Q1587173</t>
+  </si>
+  <si>
+    <t>Q1940488</t>
+  </si>
+  <si>
+    <t>Q1816468</t>
+  </si>
+  <si>
+    <t>Q16437</t>
+  </si>
+  <si>
+    <t>Q17067761</t>
+  </si>
+  <si>
+    <t>Q16555805</t>
+  </si>
+  <si>
+    <t>Q35116038</t>
+  </si>
+  <si>
+    <t>Q3678339</t>
   </si>
   <si>
     <t>Q61298831</t>
   </si>
   <si>
-    <t>Q61748349</t>
-  </si>
-  <si>
-    <t>Q61748391</t>
-  </si>
-  <si>
-    <t>Q61748363</t>
-  </si>
-  <si>
-    <t>Q61748401</t>
-  </si>
-  <si>
-    <t>Q930710</t>
-  </si>
-  <si>
-    <t>Q61748421</t>
-  </si>
-  <si>
-    <t>Q7809986</t>
-  </si>
-  <si>
-    <t>Q81219064</t>
-  </si>
-  <si>
-    <t>Q8242648</t>
-  </si>
-  <si>
-    <t>Q63316629</t>
-  </si>
-  <si>
-    <t>Q61748425</t>
-  </si>
-  <si>
-    <t>Q61748725</t>
-  </si>
-  <si>
-    <t>Q61749170</t>
-  </si>
-  <si>
-    <t>Q61749484</t>
-  </si>
-  <si>
-    <t>Q84048354</t>
-  </si>
-  <si>
-    <t>Q62562206</t>
-  </si>
-  <si>
-    <t>Q62059368</t>
-  </si>
-  <si>
-    <t>Q7017640</t>
+    <t>Q5533935</t>
+  </si>
+  <si>
+    <t>Q6046150</t>
+  </si>
+  <si>
+    <t>Q59674586</t>
+  </si>
+  <si>
+    <t>Q576515</t>
+  </si>
+  <si>
+    <t>Q575279</t>
+  </si>
+  <si>
+    <t>Q572211</t>
+  </si>
+  <si>
+    <t>Q5715032</t>
+  </si>
+  <si>
+    <t>Q11786447</t>
+  </si>
+  <si>
+    <t>Q55659156</t>
+  </si>
+  <si>
+    <t>Q11922557</t>
+  </si>
+  <si>
+    <t>Q11922558</t>
+  </si>
+  <si>
+    <t>Q11932076</t>
+  </si>
+  <si>
+    <t>Q5200372</t>
+  </si>
+  <si>
+    <t>Q39508083</t>
+  </si>
+  <si>
+    <t>Q17021145</t>
+  </si>
+  <si>
+    <t>Q12376661</t>
+  </si>
+  <si>
+    <t>Q127314</t>
+  </si>
+  <si>
+    <t>Q1294726</t>
+  </si>
+  <si>
+    <t>Q47395013</t>
+  </si>
+  <si>
+    <t>Q13049980</t>
+  </si>
+  <si>
+    <t>Q1311024</t>
+  </si>
+  <si>
+    <t>Q448531</t>
+  </si>
+  <si>
+    <t>Q42299328</t>
+  </si>
+  <si>
+    <t>Q1319638</t>
+  </si>
+  <si>
+    <t>Q3965085</t>
   </si>
   <si>
     <t>Q1016714</t>
   </si>
   <si>
-    <t>Q6046150</t>
-  </si>
-  <si>
-    <t>Q17067761</t>
-  </si>
-  <si>
-    <t>Q15709086</t>
-  </si>
-  <si>
-    <t>Q1587173</t>
-  </si>
-  <si>
-    <t>Q16437</t>
-  </si>
-  <si>
-    <t>Q16555805</t>
-  </si>
-  <si>
-    <t>Q16669588</t>
-  </si>
-  <si>
-    <t>Q17021145</t>
-  </si>
-  <si>
-    <t>Q1816468</t>
-  </si>
-  <si>
-    <t>Q2411633</t>
-  </si>
-  <si>
-    <t>Q1940488</t>
-  </si>
-  <si>
-    <t>Q2043393</t>
-  </si>
-  <si>
-    <t>Q2092855</t>
-  </si>
-  <si>
-    <t>Q21167371</t>
-  </si>
-  <si>
-    <t>Q213926</t>
-  </si>
-  <si>
-    <t>Q2153116</t>
-  </si>
-  <si>
-    <t>Q1444790</t>
-  </si>
-  <si>
-    <t>Q14405085</t>
-  </si>
-  <si>
-    <t>Q13398859</t>
-  </si>
-  <si>
-    <t>Q1335848</t>
-  </si>
-  <si>
-    <t>Q1319638</t>
-  </si>
-  <si>
-    <t>Q1311024</t>
-  </si>
-  <si>
-    <t>Q13049980</t>
-  </si>
-  <si>
-    <t>Q1294726</t>
-  </si>
-  <si>
-    <t>Q127314</t>
-  </si>
-  <si>
-    <t>Q12376661</t>
-  </si>
-  <si>
-    <t>Q11932076</t>
-  </si>
-  <si>
-    <t>Q11922558</t>
-  </si>
-  <si>
-    <t>Q11922557</t>
-  </si>
-  <si>
-    <t>Q11786447</t>
-  </si>
-  <si>
-    <t>Q11285599</t>
-  </si>
-  <si>
-    <t>Q1105442</t>
-  </si>
-  <si>
-    <t>Q1051401</t>
-  </si>
-  <si>
-    <t>Q2354300</t>
-  </si>
-  <si>
-    <t>Q2474940</t>
-  </si>
-  <si>
-    <t>Q59674586</t>
-  </si>
-  <si>
-    <t>Q5566160</t>
-  </si>
-  <si>
-    <t>Q4930097</t>
-  </si>
-  <si>
-    <t>Q5200372</t>
-  </si>
-  <si>
-    <t>Q5365353</t>
-  </si>
-  <si>
-    <t>Q5456507</t>
-  </si>
-  <si>
-    <t>Q5533935</t>
-  </si>
-  <si>
-    <t>Q55659156</t>
-  </si>
-  <si>
-    <t>Q5566163</t>
-  </si>
-  <si>
-    <t>Q2478921</t>
-  </si>
-  <si>
-    <t>Q5566166</t>
-  </si>
-  <si>
-    <t>Q5715032</t>
-  </si>
-  <si>
-    <t>Q572211</t>
-  </si>
-  <si>
-    <t>Q572722</t>
-  </si>
-  <si>
-    <t>Q575279</t>
-  </si>
-  <si>
-    <t>Q576515</t>
-  </si>
-  <si>
-    <t>Q47395013</t>
-  </si>
-  <si>
-    <t>Q448531</t>
-  </si>
-  <si>
-    <t>Q42299328</t>
-  </si>
-  <si>
-    <t>Q40172600</t>
-  </si>
-  <si>
-    <t>Q3965085</t>
-  </si>
-  <si>
-    <t>Q39508083</t>
-  </si>
-  <si>
-    <t>Q3761720</t>
-  </si>
-  <si>
-    <t>Q3678339</t>
-  </si>
-  <si>
-    <t>Q35116038</t>
-  </si>
-  <si>
-    <t>Q3449157</t>
-  </si>
-  <si>
-    <t>Q3400208</t>
-  </si>
-  <si>
-    <t>Q332716</t>
-  </si>
-  <si>
-    <t>Q3199193</t>
-  </si>
-  <si>
-    <t>Q3033403</t>
-  </si>
-  <si>
-    <t>Q28861769</t>
-  </si>
-  <si>
-    <t>Q2855957</t>
-  </si>
-  <si>
-    <t>Q2653463</t>
-  </si>
-  <si>
-    <t>Q3508956</t>
-  </si>
-  <si>
     <t>водоток</t>
   </si>
   <si>
@@ -880,12 +736,6 @@
     <t>кяриз</t>
   </si>
   <si>
-    <t>водопад</t>
-  </si>
-  <si>
-    <t>ледник</t>
-  </si>
-  <si>
     <t>канал</t>
   </si>
   <si>
@@ -895,21 +745,12 @@
     <t>водно-болотные угодья</t>
   </si>
   <si>
-    <t>зунд</t>
-  </si>
-  <si>
-    <t>пролив</t>
-  </si>
-  <si>
     <t>онсэн</t>
   </si>
   <si>
     <t>marine channel</t>
   </si>
   <si>
-    <t>группа озёр</t>
-  </si>
-  <si>
     <t>intermittent wetland</t>
   </si>
   <si>
@@ -919,12 +760,6 @@
     <t>речной порог</t>
   </si>
   <si>
-    <t>Ров</t>
-  </si>
-  <si>
-    <t>ручей</t>
-  </si>
-  <si>
     <t>Фиард</t>
   </si>
   <si>
@@ -934,9 +769,6 @@
     <t>anchorage</t>
   </si>
   <si>
-    <t>Геотермальный источник</t>
-  </si>
-  <si>
     <t>искусственное озеро</t>
   </si>
   <si>
@@ -970,12 +802,12 @@
     <t>водный мост</t>
   </si>
   <si>
+    <t>fishing area</t>
+  </si>
+  <si>
     <t>магистральная канава</t>
   </si>
   <si>
-    <t>fishing area</t>
-  </si>
-  <si>
     <t>Лох</t>
   </si>
   <si>
@@ -991,15 +823,9 @@
     <t>Spring box</t>
   </si>
   <si>
-    <t>гейзер</t>
-  </si>
-  <si>
     <t>верховое болото</t>
   </si>
   <si>
-    <t>Ледопад</t>
-  </si>
-  <si>
     <t>овраг</t>
   </si>
   <si>
@@ -1009,9 +835,6 @@
     <t>group of ponds</t>
   </si>
   <si>
-    <t>Шельфовый ледник</t>
-  </si>
-  <si>
     <t>detention basin</t>
   </si>
   <si>
@@ -1039,33 +862,27 @@
     <t>navigation channel</t>
   </si>
   <si>
+    <t>Kunstgraben</t>
+  </si>
+  <si>
     <t>Wetland Management District</t>
   </si>
   <si>
-    <t>Kunstgraben</t>
+    <t>основное русло реки</t>
   </si>
   <si>
     <t>narrows</t>
   </si>
   <si>
-    <t>основное русло реки</t>
-  </si>
-  <si>
     <t>Низинные болота</t>
   </si>
   <si>
-    <t>ice stream</t>
+    <t>karst spring</t>
   </si>
   <si>
     <t>Акведуки Древнего Рима</t>
   </si>
   <si>
-    <t>Ледяная шапка</t>
-  </si>
-  <si>
-    <t>karst spring</t>
-  </si>
-  <si>
     <t>исток</t>
   </si>
   <si>
@@ -1075,12 +892,12 @@
     <t>бывший залив Гонконга</t>
   </si>
   <si>
+    <t>Минеральные источники</t>
+  </si>
+  <si>
     <t>mangrove swamp</t>
   </si>
   <si>
-    <t>Минеральные источники</t>
-  </si>
-  <si>
     <t>rivulet</t>
   </si>
   <si>
@@ -1093,214 +910,217 @@
     <t>nada</t>
   </si>
   <si>
-    <t>Ледяной щит</t>
+    <t>тугайные леса</t>
   </si>
   <si>
     <t>бывшая река</t>
   </si>
   <si>
-    <t>тугайные леса</t>
-  </si>
-  <si>
-    <t>valley glacier</t>
-  </si>
-  <si>
-    <t>coastal waterfall</t>
-  </si>
-  <si>
     <t>sewerage aqueduct</t>
   </si>
   <si>
+    <t>Stream pool</t>
+  </si>
+  <si>
+    <t>Священный источник</t>
+  </si>
+  <si>
     <t>Chalybeate</t>
   </si>
   <si>
     <t>искусственный пруд</t>
   </si>
   <si>
-    <t>Священный источник</t>
-  </si>
-  <si>
     <t>harbor basin</t>
   </si>
   <si>
+    <t>Bisse</t>
+  </si>
+  <si>
+    <t>Отстойник</t>
+  </si>
+  <si>
     <t>wetering</t>
   </si>
   <si>
-    <t>Bisse</t>
-  </si>
-  <si>
-    <t>Отстойник</t>
+    <t>айсберг</t>
   </si>
   <si>
     <t>branch</t>
   </si>
   <si>
-    <t>айсберг</t>
+    <t>пересыхающая река</t>
+  </si>
+  <si>
+    <t>Затон</t>
+  </si>
+  <si>
+    <t>Bodden</t>
   </si>
   <si>
     <t>broadening</t>
   </si>
   <si>
-    <t>Bodden</t>
-  </si>
-  <si>
-    <t>firth</t>
-  </si>
-  <si>
-    <t>Затон</t>
-  </si>
-  <si>
     <t>slough</t>
   </si>
   <si>
-    <t>пересыхающая река</t>
-  </si>
-  <si>
     <t>deep</t>
   </si>
   <si>
+    <t>Salmon pool</t>
+  </si>
+  <si>
     <t>рукав</t>
   </si>
   <si>
     <t>perennial stream</t>
   </si>
   <si>
-    <t>Salmon pool</t>
-  </si>
-  <si>
-    <t>Gat</t>
-  </si>
-  <si>
     <t>springhead</t>
   </si>
   <si>
+    <t>временный весенний водоём</t>
+  </si>
+  <si>
     <t>Ramsar site in Australia</t>
   </si>
   <si>
-    <t>ice piedmont</t>
-  </si>
-  <si>
-    <t>временный весенний водоём</t>
-  </si>
-  <si>
     <t>акватория</t>
   </si>
   <si>
+    <t>карр</t>
+  </si>
+  <si>
+    <t>section of a wadi</t>
+  </si>
+  <si>
+    <t>proglacial lake</t>
+  </si>
+  <si>
     <t>бывший залив</t>
   </si>
   <si>
-    <t>section of a wadi</t>
-  </si>
-  <si>
-    <t>карр</t>
-  </si>
-  <si>
-    <t>proglacial lake</t>
-  </si>
-  <si>
-    <t>Ледовый язык</t>
-  </si>
-  <si>
     <t>ditch</t>
   </si>
   <si>
     <t>Байу</t>
   </si>
   <si>
+    <t>Перекат</t>
+  </si>
+  <si>
+    <t>Blanket bog</t>
+  </si>
+  <si>
+    <t>nullah</t>
+  </si>
+  <si>
+    <t>Каналы оттока</t>
+  </si>
+  <si>
+    <t>бывший водный объект</t>
+  </si>
+  <si>
+    <t>pluvial lake</t>
+  </si>
+  <si>
+    <t>floodplain lake</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
     <t>health spring</t>
   </si>
   <si>
-    <t>nullah</t>
-  </si>
-  <si>
-    <t>Blanket bog</t>
+    <t>thermal spring</t>
+  </si>
+  <si>
+    <t>Estavelle</t>
   </si>
   <si>
     <t>Fleet</t>
   </si>
   <si>
-    <t>Гидротермальные источники срединно-океанических хребтов</t>
-  </si>
-  <si>
-    <t>thermal spring</t>
-  </si>
-  <si>
-    <t>floodplain lake</t>
-  </si>
-  <si>
-    <t>Перекат</t>
-  </si>
-  <si>
-    <t>Каналы оттока</t>
-  </si>
-  <si>
-    <t>Estavelle</t>
-  </si>
-  <si>
-    <t>pluvial lake</t>
-  </si>
-  <si>
-    <t>reach</t>
+    <t>iconic source</t>
+  </si>
+  <si>
+    <t>back channel</t>
+  </si>
+  <si>
+    <t>древний суперокеан</t>
+  </si>
+  <si>
+    <t>winterbourne</t>
+  </si>
+  <si>
+    <t>горная река</t>
+  </si>
+  <si>
+    <t>полынья</t>
+  </si>
+  <si>
+    <t>chalk stream</t>
   </si>
   <si>
     <t>fiumara</t>
   </si>
   <si>
-    <t>полынья</t>
-  </si>
-  <si>
-    <t>chalk stream</t>
-  </si>
-  <si>
-    <t>hot lake</t>
-  </si>
-  <si>
-    <t>heathland pond</t>
-  </si>
-  <si>
-    <t>горная река</t>
-  </si>
-  <si>
-    <t>cirque glacier</t>
-  </si>
-  <si>
-    <t>back channel</t>
+    <t>торфяник</t>
   </si>
   <si>
     <t>bonal</t>
   </si>
   <si>
-    <t>mudpot</t>
-  </si>
-  <si>
-    <t>rock glacier</t>
-  </si>
-  <si>
-    <t>winterbourne</t>
-  </si>
-  <si>
-    <t>полярная шапка</t>
-  </si>
-  <si>
     <t>body of water</t>
   </si>
   <si>
     <t>section of a natural watercourse</t>
   </si>
   <si>
-    <t>торфяник</t>
-  </si>
-  <si>
-    <t>бывший водный объект</t>
-  </si>
-  <si>
-    <t>iconic source</t>
-  </si>
-  <si>
-    <t>древний суперокеан</t>
-  </si>
-  <si>
-    <t>mountain glacier</t>
+    <t>Bolongs</t>
+  </si>
+  <si>
+    <t>glacial stream</t>
+  </si>
+  <si>
+    <t>leat</t>
+  </si>
+  <si>
+    <t>речное русло</t>
+  </si>
+  <si>
+    <t>Ölkelda</t>
+  </si>
+  <si>
+    <t>покосин</t>
+  </si>
+  <si>
+    <t>mountain stream</t>
+  </si>
+  <si>
+    <t>Free Life Pond</t>
+  </si>
+  <si>
+    <t>континентальные воды</t>
+  </si>
+  <si>
+    <t>гельта</t>
+  </si>
+  <si>
+    <t>section of a canal</t>
+  </si>
+  <si>
+    <t>subterranean waterfall</t>
+  </si>
+  <si>
+    <t>section of a lagoon</t>
+  </si>
+  <si>
+    <t>Swimming hole</t>
+  </si>
+  <si>
+    <t>brine spring</t>
   </si>
   <si>
     <t>bog forest</t>
@@ -1309,360 +1129,255 @@
     <t>coastal wetland</t>
   </si>
   <si>
-    <t>Bolongs</t>
-  </si>
-  <si>
-    <t>glacial stream</t>
-  </si>
-  <si>
-    <t>Free Life Pond</t>
-  </si>
-  <si>
-    <t>Tidewater glacier</t>
-  </si>
-  <si>
-    <t>section of a lagoon</t>
-  </si>
-  <si>
-    <t>section of a canal</t>
-  </si>
-  <si>
-    <t>mountain stream</t>
-  </si>
-  <si>
-    <t>искусственный водопад</t>
-  </si>
-  <si>
-    <t>Tiered waterfall</t>
-  </si>
-  <si>
-    <t>subterranean waterfall</t>
-  </si>
-  <si>
-    <t>leat</t>
-  </si>
-  <si>
-    <t>Swimming hole</t>
-  </si>
-  <si>
-    <t>континентальные воды</t>
-  </si>
-  <si>
     <t>cratoneurion</t>
   </si>
   <si>
-    <t>brine spring</t>
-  </si>
-  <si>
-    <t>Piedmont glacier</t>
-  </si>
-  <si>
-    <t>Ölkelda</t>
-  </si>
-  <si>
-    <t>покосин</t>
-  </si>
-  <si>
-    <t>речное русло</t>
-  </si>
-  <si>
-    <t>гельта</t>
+    <t>Depressions on peat substrates of the Rhynchosporion</t>
+  </si>
+  <si>
+    <t>Fennoscandian mineral-rich springs and springfens</t>
+  </si>
+  <si>
+    <t>Palsa mire</t>
+  </si>
+  <si>
+    <t>Alkaline fen</t>
+  </si>
+  <si>
+    <t>Aapa mire</t>
+  </si>
+  <si>
+    <t>Ulmenion minoris</t>
+  </si>
+  <si>
+    <t>Alpine pioneer formations of the Caricion bicoloris-atrofuscae</t>
+  </si>
+  <si>
+    <t>Fennoscandian deciduous swamp woods</t>
+  </si>
+  <si>
+    <t>кювет</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>подповерхностное течение</t>
+  </si>
+  <si>
+    <t>section of a body of water</t>
+  </si>
+  <si>
+    <t>Rojst</t>
+  </si>
+  <si>
+    <t>lade</t>
+  </si>
+  <si>
+    <t>Baïne</t>
+  </si>
+  <si>
+    <t>NodeTube channel</t>
+  </si>
+  <si>
+    <t>Titi swamp</t>
+  </si>
+  <si>
+    <t>sods</t>
+  </si>
+  <si>
+    <t>маршевые почвы</t>
+  </si>
+  <si>
+    <t>Active raised bog</t>
   </si>
   <si>
     <t>Piscina Publica</t>
   </si>
   <si>
-    <t>Rojst</t>
+    <t>Sources of the Jordan</t>
   </si>
   <si>
     <t>Calcareous fens with Cladium mariscus and species of the Caricion davallianae</t>
   </si>
   <si>
-    <t>Active raised bog</t>
+    <t>sea area</t>
+  </si>
+  <si>
+    <t>manigua</t>
   </si>
   <si>
     <t>Degraded raised bog still capable of natural regeneration</t>
   </si>
   <si>
-    <t>section of a body of water</t>
+    <t>Blue iceberg</t>
   </si>
   <si>
     <t>Riverine ash-alder woodland</t>
   </si>
   <si>
-    <t>подповерхностное течение</t>
-  </si>
-  <si>
-    <t>sods</t>
-  </si>
-  <si>
-    <t>alpine glacier</t>
+    <t>flow through marsh</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>pouhon</t>
+  </si>
+  <si>
+    <t>overflow spring</t>
+  </si>
+  <si>
+    <t>Аапа-болото</t>
+  </si>
+  <si>
+    <t>rich fen</t>
+  </si>
+  <si>
+    <t>речной сток</t>
+  </si>
+  <si>
+    <t>three way lock</t>
+  </si>
+  <si>
+    <t>водно-болотное угодье международного назначения Молдовы</t>
+  </si>
+  <si>
+    <t>винтовой поток</t>
+  </si>
+  <si>
+    <t>flood marsh</t>
+  </si>
+  <si>
+    <t>сток</t>
+  </si>
+  <si>
+    <t>Переходные болота</t>
+  </si>
+  <si>
+    <t>Паковый лёд</t>
+  </si>
+  <si>
+    <t>Подводное соляное озеро</t>
+  </si>
+  <si>
+    <t>промоина</t>
+  </si>
+  <si>
+    <t>Морской лёд</t>
+  </si>
+  <si>
+    <t>mesotrophic regularly flooded alder carr and birch wooded mires</t>
+  </si>
+  <si>
+    <t>крик</t>
+  </si>
+  <si>
+    <t>Bottomland hardwood forest</t>
+  </si>
+  <si>
+    <t>winding hole</t>
+  </si>
+  <si>
+    <t>Воклюз</t>
+  </si>
+  <si>
+    <t>Alamito Creek</t>
+  </si>
+  <si>
+    <t>Freestone stream</t>
+  </si>
+  <si>
+    <t>Growler</t>
+  </si>
+  <si>
+    <t>формы побережья</t>
+  </si>
+  <si>
+    <t>citro</t>
   </si>
   <si>
     <t>Important Wetlands in Australia</t>
   </si>
   <si>
-    <t>Depressions on peat substrates of the Rhynchosporion</t>
-  </si>
-  <si>
-    <t>Alkaline fen</t>
-  </si>
-  <si>
-    <t>Fennoscandian mineral-rich springs and springfens</t>
-  </si>
-  <si>
-    <t>Alpine pioneer formations of the Caricion bicoloris-atrofuscae</t>
-  </si>
-  <si>
-    <t>Martian geyser</t>
-  </si>
-  <si>
-    <t>Aapa mire</t>
-  </si>
-  <si>
-    <t>Titi swamp</t>
-  </si>
-  <si>
-    <t>NodeTube channel</t>
-  </si>
-  <si>
-    <t>Baïne</t>
-  </si>
-  <si>
-    <t>manigua</t>
-  </si>
-  <si>
-    <t>Palsa mire</t>
-  </si>
-  <si>
-    <t>Permanent glacier</t>
-  </si>
-  <si>
-    <t>Fennoscandian deciduous swamp woods</t>
-  </si>
-  <si>
-    <t>Ulmenion minoris</t>
-  </si>
-  <si>
-    <t>lade</t>
-  </si>
-  <si>
-    <t>маршевые почвы</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>Sources of the Jordan</t>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>interdunal wetland</t>
+  </si>
+  <si>
+    <t>ледяной покров</t>
+  </si>
+  <si>
+    <t>Припай</t>
+  </si>
+  <si>
+    <t>anchialine pool</t>
+  </si>
+  <si>
+    <t>Antecedent drainage stream</t>
+  </si>
+  <si>
+    <t>Azarbe</t>
+  </si>
+  <si>
+    <t>Mszar</t>
+  </si>
+  <si>
+    <t>intermittent watercourse</t>
+  </si>
+  <si>
+    <t>fonts de Guixers</t>
+  </si>
+  <si>
+    <t>fonts de Camprodon</t>
+  </si>
+  <si>
+    <t>Llau</t>
+  </si>
+  <si>
+    <t>Cypress dome</t>
+  </si>
+  <si>
+    <t>intermittent body of water</t>
+  </si>
+  <si>
+    <t>bourne</t>
+  </si>
+  <si>
+    <t>искусственный водоём</t>
+  </si>
+  <si>
+    <t>Coniferous swamp</t>
+  </si>
+  <si>
+    <t>Зыбун</t>
+  </si>
+  <si>
+    <t>ridge-shaped well bore</t>
+  </si>
+  <si>
+    <t>recolón</t>
+  </si>
+  <si>
+    <t>тугаи</t>
+  </si>
+  <si>
+    <t>Alvarsee</t>
+  </si>
+  <si>
+    <t>Tabular iceberg</t>
+  </si>
+  <si>
+    <t>сало</t>
+  </si>
+  <si>
+    <t>Vauclusian spring</t>
   </si>
   <si>
     <t>burn</t>
   </si>
   <si>
-    <t>interdunal wetland</t>
-  </si>
-  <si>
-    <t>Freestone stream</t>
-  </si>
-  <si>
-    <t>Moats</t>
-  </si>
-  <si>
-    <t>Bottomland hardwood forest</t>
-  </si>
-  <si>
-    <t>Alamito Creek</t>
-  </si>
-  <si>
-    <t>Growler</t>
-  </si>
-  <si>
-    <t>кювет</t>
-  </si>
-  <si>
-    <t>bourne</t>
-  </si>
-  <si>
-    <t>Воклюз</t>
-  </si>
-  <si>
-    <t>Переходные болота</t>
-  </si>
-  <si>
-    <t>winding hole</t>
-  </si>
-  <si>
-    <t>крик</t>
-  </si>
-  <si>
-    <t>mesotrophic regularly flooded alder carr and birch wooded mires</t>
-  </si>
-  <si>
-    <t>Glaciers of Alaska</t>
-  </si>
-  <si>
-    <t>Морской лёд</t>
-  </si>
-  <si>
-    <t>промоина</t>
-  </si>
-  <si>
-    <t>речной сток</t>
-  </si>
-  <si>
-    <t>rich fen</t>
-  </si>
-  <si>
-    <t>Паковый лёд</t>
-  </si>
-  <si>
-    <t>сало</t>
-  </si>
-  <si>
-    <t>тугаи</t>
-  </si>
-  <si>
-    <t>recolón</t>
-  </si>
-  <si>
-    <t>Зыбун</t>
-  </si>
-  <si>
-    <t>Coniferous swamp</t>
-  </si>
-  <si>
-    <t>искусственный водоём</t>
-  </si>
-  <si>
-    <t>Llau</t>
-  </si>
-  <si>
-    <t>fonts de Camprodon</t>
-  </si>
-  <si>
-    <t>fonts de Guixers</t>
-  </si>
-  <si>
-    <t>Mszar</t>
-  </si>
-  <si>
-    <t>sea area</t>
-  </si>
-  <si>
-    <t>cataract</t>
-  </si>
-  <si>
-    <t>Черноморские проливы</t>
-  </si>
-  <si>
-    <t>Подводное соляное озеро</t>
-  </si>
-  <si>
-    <t>flow through marsh</t>
-  </si>
-  <si>
-    <t>ледяной покров</t>
-  </si>
-  <si>
-    <t>Glaciers of Bhutan</t>
-  </si>
-  <si>
-    <t>Blue iceberg</t>
-  </si>
-  <si>
-    <t>Cypress dome</t>
-  </si>
-  <si>
-    <t>Glaciers of New Zealand</t>
-  </si>
-  <si>
-    <t>Fjords and channels of Chile</t>
-  </si>
-  <si>
-    <t>Geo</t>
-  </si>
-  <si>
-    <t>intermittent watercourse</t>
-  </si>
-  <si>
-    <t>glaciers on Mars</t>
-  </si>
-  <si>
-    <t>сток</t>
-  </si>
-  <si>
-    <t>Ледники Грузии</t>
-  </si>
-  <si>
-    <t>Azarbe</t>
-  </si>
-  <si>
-    <t>Antecedent drainage stream</t>
-  </si>
-  <si>
-    <t>hanging glacier</t>
-  </si>
-  <si>
-    <t>anchialine pool</t>
-  </si>
-  <si>
-    <t>Припай</t>
-  </si>
-  <si>
-    <t>ridge-shaped well bore</t>
-  </si>
-  <si>
-    <t>Alvarsee</t>
-  </si>
-  <si>
-    <t>Tabular iceberg</t>
-  </si>
-  <si>
-    <t>Japan's Top 100 Waterfalls</t>
-  </si>
-  <si>
-    <t>Vauclusian spring</t>
-  </si>
-  <si>
-    <t>intermittent body of water</t>
-  </si>
-  <si>
-    <t>debris covered glacier</t>
-  </si>
-  <si>
-    <t>citro</t>
-  </si>
-  <si>
-    <t>формы побережья</t>
-  </si>
-  <si>
-    <t>lens</t>
-  </si>
-  <si>
-    <t>pouhon</t>
-  </si>
-  <si>
-    <t>overflow spring</t>
-  </si>
-  <si>
-    <t>Аапа-болото</t>
-  </si>
-  <si>
-    <t>three way lock</t>
-  </si>
-  <si>
-    <t>водно-болотное угодье международного назначения Молдовы</t>
-  </si>
-  <si>
-    <t>винтовой поток</t>
-  </si>
-  <si>
-    <t>flood marsh</t>
-  </si>
-  <si>
-    <t>Южная полярная шапка (Марс)</t>
-  </si>
-  <si>
     <t>Q863944_континентальные воды</t>
   </si>
   <si>
@@ -1684,196 +1399,166 @@
     <t>Q12719343_водный туннель</t>
   </si>
   <si>
+    <t>Q2507626_акватория</t>
+  </si>
+  <si>
+    <t>Q1365924_Минеральные источники</t>
+  </si>
+  <si>
+    <t>Q15324_водный объект,Q1210950_канал</t>
+  </si>
+  <si>
+    <t>Q18870689_акведук</t>
+  </si>
+  <si>
+    <t>Q12376661_искусственный водоём</t>
+  </si>
+  <si>
+    <t>Q180537_меандр</t>
+  </si>
+  <si>
+    <t>Q655311_онсэн</t>
+  </si>
+  <si>
+    <t>Q124714_родник</t>
+  </si>
+  <si>
+    <t>Q35116038_формы побережья</t>
+  </si>
+  <si>
+    <t>Q93441425_section of a body of water</t>
+  </si>
+  <si>
+    <t>Q55659107_intermittent natural watercourse</t>
+  </si>
+  <si>
+    <t>Q474_акведук</t>
+  </si>
+  <si>
+    <t>Q2048319_канава</t>
+  </si>
+  <si>
+    <t>Q62562206_маршевые почвы</t>
+  </si>
+  <si>
+    <t>Q1681353_торфяное болото</t>
+  </si>
+  <si>
+    <t>Q373315_балка,Q55659107_intermittent natural watercourse</t>
+  </si>
+  <si>
+    <t>Q1210950_канал</t>
+  </si>
+  <si>
+    <t>Q21550629_бывший водный объект</t>
+  </si>
+  <si>
+    <t>Q2923911_бывший залив</t>
+  </si>
+  <si>
+    <t>Q166735_лесное болото</t>
+  </si>
+  <si>
+    <t>Q47521_поток</t>
+  </si>
+  <si>
+    <t>Q1172599_проток</t>
+  </si>
+  <si>
+    <t>Q11285599_sea area</t>
+  </si>
+  <si>
+    <t>Q3177968_пруд</t>
+  </si>
+  <si>
+    <t>Q1371047_Святой источник</t>
+  </si>
+  <si>
+    <t>Q55468590_fishing area</t>
+  </si>
+  <si>
+    <t>Q7376362_исток</t>
+  </si>
+  <si>
+    <t>Q19683138_Ramsar site</t>
+  </si>
+  <si>
+    <t>Q55965244_палеоозеро</t>
+  </si>
+  <si>
+    <t>Q491713_зунд,Q21550629_бывший водный объект</t>
+  </si>
+  <si>
+    <t>Q695793_речной порог</t>
+  </si>
+  <si>
+    <t>Q1837011_речное русло</t>
+  </si>
+  <si>
+    <t>Q9019918_бессточное озеро,Q55965244_палеоозеро</t>
+  </si>
+  <si>
+    <t>Q590992_karst spring</t>
+  </si>
+  <si>
+    <t>Q47521_поток,Q1210950_канал</t>
+  </si>
+  <si>
+    <t>Q11802343_древний океан</t>
+  </si>
+  <si>
+    <t>Q170321_водно-болотные угодья,Q514050_Низинные болота</t>
+  </si>
+  <si>
+    <t>Q85842470_искусственный пруд</t>
+  </si>
+  <si>
+    <t>Q1140845_подземная река</t>
+  </si>
+  <si>
+    <t>Q910817_карр,Q1681353_торфяное болото</t>
+  </si>
+  <si>
+    <t>Q124714_родник,Q514050_Низинные болота</t>
+  </si>
+  <si>
+    <t>Q514050_Низинные болота</t>
+  </si>
+  <si>
+    <t>Q1587173_Bottomland hardwood forest</t>
+  </si>
+  <si>
+    <t>Q910817_карр</t>
+  </si>
+  <si>
+    <t>Q1437299_поток</t>
+  </si>
+  <si>
+    <t>Q13359600_верховое болото</t>
+  </si>
+  <si>
+    <t>Q93429857_ancient Roman cistern</t>
+  </si>
+  <si>
+    <t>Q47568_айсберг</t>
+  </si>
+  <si>
+    <t>Q11177275_тугайные леса</t>
+  </si>
+  <si>
+    <t>Q2478921_сток</t>
+  </si>
+  <si>
+    <t>Q22953352_Q22953352</t>
+  </si>
+  <si>
+    <t>Q213926_Морской лёд</t>
+  </si>
+  <si>
     <t>Q59674586_ледяной покров</t>
   </si>
   <si>
-    <t>Q2507626_акватория</t>
-  </si>
-  <si>
-    <t>Q37901_пролив</t>
-  </si>
-  <si>
-    <t>Q1365924_Минеральные источники</t>
-  </si>
-  <si>
-    <t>Q15324_водный объект,Q1210950_канал</t>
-  </si>
-  <si>
-    <t>Q2048319_канава</t>
-  </si>
-  <si>
-    <t>Q47521_поток</t>
-  </si>
-  <si>
-    <t>Q18870689_акведук</t>
-  </si>
-  <si>
-    <t>Q124714_родник</t>
-  </si>
-  <si>
-    <t>Q12376661_искусственный водоём</t>
-  </si>
-  <si>
-    <t>Q180537_меандр</t>
-  </si>
-  <si>
-    <t>Q655311_онсэн</t>
-  </si>
-  <si>
-    <t>Q35116038_формы побережья</t>
-  </si>
-  <si>
-    <t>Q93441425_section of a body of water</t>
-  </si>
-  <si>
-    <t>Q55659107_intermittent natural watercourse</t>
-  </si>
-  <si>
-    <t>Q474_акведук</t>
-  </si>
-  <si>
-    <t>Q62562206_маршевые почвы</t>
-  </si>
-  <si>
-    <t>Q1681353_торфяное болото</t>
-  </si>
-  <si>
-    <t>Q35666_ледник</t>
-  </si>
-  <si>
-    <t>Q373315_балка,Q55659107_intermittent natural watercourse</t>
-  </si>
-  <si>
-    <t>Q1210950_канал</t>
-  </si>
-  <si>
-    <t>Q21550629_бывший водный объект</t>
-  </si>
-  <si>
-    <t>Q2923911_бывший залив</t>
-  </si>
-  <si>
-    <t>Q166735_лесное болото</t>
-  </si>
-  <si>
-    <t>Q1172599_проток</t>
-  </si>
-  <si>
-    <t>Q11285599_sea area</t>
-  </si>
-  <si>
-    <t>Q878077_Ледяная шапка</t>
-  </si>
-  <si>
-    <t>Q34038_водопад</t>
-  </si>
-  <si>
-    <t>Q1371047_Святой источник</t>
-  </si>
-  <si>
-    <t>Q55468590_fishing area</t>
-  </si>
-  <si>
-    <t>Q7376362_исток</t>
-  </si>
-  <si>
-    <t>Q19683138_Ramsar site</t>
-  </si>
-  <si>
-    <t>Q491713_зунд,Q21550629_бывший водный объект</t>
-  </si>
-  <si>
-    <t>Q55965244_палеоозеро</t>
-  </si>
-  <si>
-    <t>Q46966_Шельфовый ледник</t>
-  </si>
-  <si>
-    <t>Q177380_Геотермальный источник</t>
-  </si>
-  <si>
-    <t>Q695793_речной порог</t>
-  </si>
-  <si>
-    <t>Q1837011_речное русло</t>
-  </si>
-  <si>
-    <t>Q590992_karst spring</t>
-  </si>
-  <si>
-    <t>Q9019918_бессточное озеро,Q55965244_палеоозеро</t>
-  </si>
-  <si>
-    <t>Q16710063_oligotrophic lake</t>
-  </si>
-  <si>
-    <t>Q47521_поток,Q1210950_канал</t>
-  </si>
-  <si>
-    <t>Q11802343_древний океан</t>
-  </si>
-  <si>
-    <t>Q910817_карр,Q1681353_торфяное болото</t>
-  </si>
-  <si>
-    <t>Q85842470_искусственный пруд</t>
-  </si>
-  <si>
-    <t>Q34038_водопад,Q1140845_подземная река</t>
-  </si>
-  <si>
-    <t>Q124714_родник,Q514050_Низинные болота</t>
-  </si>
-  <si>
-    <t>Q170321_водно-болотные угодья,Q514050_Низинные болота</t>
-  </si>
-  <si>
-    <t>Q93429857_ancient Roman cistern</t>
-  </si>
-  <si>
-    <t>Q514050_Низинные болота</t>
-  </si>
-  <si>
-    <t>Q13359600_верховое болото</t>
-  </si>
-  <si>
-    <t>Q11177275_тугайные леса</t>
-  </si>
-  <si>
-    <t>Q1437299_поток</t>
-  </si>
-  <si>
-    <t>Q83471_гейзер</t>
-  </si>
-  <si>
-    <t>Q910817_карр</t>
-  </si>
-  <si>
-    <t>Q1587173_Bottomland hardwood forest</t>
-  </si>
-  <si>
-    <t>Q88480_Ров</t>
-  </si>
-  <si>
-    <t>Q47568_айсберг</t>
-  </si>
-  <si>
-    <t>Q2478921_сток</t>
-  </si>
-  <si>
-    <t>Q213926_Морской лёд</t>
-  </si>
-  <si>
-    <t>Q867648_Гидротермальные источники срединно-океанических хребтов</t>
-  </si>
-  <si>
     <t>Q355304_водоток,Q39508083_intermittent body of water</t>
-  </si>
-  <si>
-    <t>Q22953352_Q22953352</t>
-  </si>
-  <si>
-    <t>Q1286914_полярная шапка</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2256,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
       <c r="D2">
         <v>174965</v>
@@ -2270,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
       <c r="D3">
-        <v>124709</v>
+        <v>124695</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2284,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="D4">
-        <v>69314</v>
+        <v>69315</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2298,10 +1983,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="D5">
         <v>66671</v>
@@ -2312,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="D6">
-        <v>27067</v>
+        <v>27068</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2326,10 +2011,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
       <c r="D7">
         <v>18059</v>
@@ -2340,10 +2025,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="D8">
         <v>16481</v>
@@ -2354,10 +2039,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="D9">
         <v>14707</v>
@@ -2368,10 +2053,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
       <c r="D10">
         <v>13593</v>
@@ -2382,13 +2067,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="D11">
-        <v>10095</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2396,13 +2081,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="D12">
-        <v>8574</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2410,13 +2095,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="D13">
-        <v>6476</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2424,13 +2109,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>551</v>
+        <v>462</v>
       </c>
       <c r="D14">
-        <v>3717</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2438,13 +2123,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="D15">
-        <v>3233</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2452,13 +2137,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>558</v>
+        <v>458</v>
       </c>
       <c r="D16">
-        <v>1940</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2466,13 +2151,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="D17">
-        <v>1928</v>
+        <v>996</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2480,13 +2165,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
       <c r="D18">
-        <v>1539</v>
+        <v>988</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2494,13 +2179,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="D19">
-        <v>1467</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2508,13 +2193,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>549</v>
+        <v>464</v>
       </c>
       <c r="D20">
-        <v>1405</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2522,13 +2207,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>553</v>
+        <v>461</v>
       </c>
       <c r="D21">
-        <v>1015</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2536,13 +2221,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>551</v>
+        <v>465</v>
       </c>
       <c r="D22">
-        <v>996</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2550,13 +2235,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
-        <v>552</v>
+        <v>466</v>
       </c>
       <c r="D23">
-        <v>988</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2564,13 +2249,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>561</v>
+        <v>457</v>
       </c>
       <c r="D24">
-        <v>871</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2578,13 +2263,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>562</v>
+        <v>455</v>
       </c>
       <c r="D25">
-        <v>835</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2592,13 +2277,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="D26">
-        <v>806</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2606,13 +2291,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>563</v>
+        <v>467</v>
       </c>
       <c r="D27">
-        <v>715</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2620,13 +2305,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
-        <v>557</v>
+        <v>468</v>
       </c>
       <c r="D28">
-        <v>451</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2634,13 +2319,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="D29">
-        <v>330</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2648,13 +2333,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>565</v>
+        <v>469</v>
       </c>
       <c r="D30">
-        <v>323</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2662,13 +2347,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
-        <v>566</v>
+        <v>470</v>
       </c>
       <c r="D31">
-        <v>308</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2676,13 +2361,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>552</v>
+        <v>471</v>
       </c>
       <c r="D32">
-        <v>291</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2690,13 +2375,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="D33">
-        <v>268</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2704,13 +2389,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="D34">
-        <v>218</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2718,13 +2403,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
-        <v>567</v>
+        <v>473</v>
       </c>
       <c r="D35">
-        <v>217</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2732,13 +2417,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>564</v>
+        <v>456</v>
       </c>
       <c r="D36">
-        <v>190</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2746,13 +2431,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>552</v>
+        <v>467</v>
       </c>
       <c r="D37">
-        <v>161</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2760,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="D38">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2774,13 +2459,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>569</v>
+        <v>458</v>
       </c>
       <c r="D39">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2788,13 +2473,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>570</v>
+        <v>468</v>
       </c>
       <c r="D40">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2802,13 +2487,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>571</v>
+        <v>475</v>
       </c>
       <c r="D41">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2816,13 +2501,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C42" t="s">
-        <v>561</v>
+        <v>476</v>
       </c>
       <c r="D42">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2830,13 +2515,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="D43">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2844,13 +2529,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="D44">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2858,13 +2543,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2872,13 +2557,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
-        <v>572</v>
+        <v>457</v>
       </c>
       <c r="D46">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2886,13 +2571,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="C47" t="s">
-        <v>553</v>
+        <v>454</v>
       </c>
       <c r="D47">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2900,13 +2585,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>564</v>
+        <v>478</v>
       </c>
       <c r="D48">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2914,13 +2599,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="C49" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="D49">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2928,13 +2613,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>573</v>
+        <v>457</v>
       </c>
       <c r="D50">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2942,13 +2627,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="C51" t="s">
-        <v>574</v>
+        <v>468</v>
       </c>
       <c r="D51">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2956,13 +2641,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="C52" t="s">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="D52">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2970,13 +2655,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C53" t="s">
-        <v>576</v>
+        <v>477</v>
       </c>
       <c r="D53">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2984,13 +2669,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="C54" t="s">
-        <v>551</v>
+        <v>473</v>
       </c>
       <c r="D54">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2998,13 +2683,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>458</v>
       </c>
       <c r="D55">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3012,13 +2697,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="C56" t="s">
-        <v>565</v>
+        <v>457</v>
       </c>
       <c r="D56">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3026,13 +2711,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C57" t="s">
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="D57">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3040,13 +2725,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="C58" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="D58">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3054,13 +2739,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
-        <v>577</v>
+        <v>468</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3068,13 +2753,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
       <c r="D60">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3082,13 +2767,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>552</v>
+        <v>468</v>
       </c>
       <c r="D61">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3096,13 +2781,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="C62" t="s">
-        <v>564</v>
+        <v>478</v>
       </c>
       <c r="D62">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3110,13 +2795,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="D63">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3124,13 +2809,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>576</v>
+        <v>479</v>
       </c>
       <c r="D64">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3138,13 +2823,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>553</v>
+        <v>468</v>
       </c>
       <c r="D65">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3152,13 +2837,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
-        <v>561</v>
+        <v>480</v>
       </c>
       <c r="D66">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3166,13 +2851,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3180,13 +2865,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3194,13 +2879,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
-        <v>573</v>
+        <v>457</v>
       </c>
       <c r="D69">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3208,13 +2893,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3222,13 +2907,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>571</v>
+        <v>458</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3236,13 +2921,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
-        <v>574</v>
+        <v>478</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3250,13 +2935,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3264,13 +2949,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3278,13 +2963,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>564</v>
+        <v>485</v>
       </c>
       <c r="D75">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3292,13 +2977,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
-        <v>577</v>
+        <v>467</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3306,13 +2991,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>578</v>
+        <v>465</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3320,13 +3005,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="D78">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3334,13 +3019,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
-        <v>564</v>
+        <v>473</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3348,13 +3033,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
-        <v>562</v>
+        <v>465</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3362,13 +3047,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3376,13 +3061,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3390,13 +3075,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3404,13 +3089,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
-        <v>582</v>
+        <v>471</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3418,13 +3103,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
-        <v>577</v>
+        <v>461</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3432,13 +3117,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>553</v>
+        <v>461</v>
       </c>
       <c r="D86">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3446,13 +3131,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="C87" t="s">
-        <v>574</v>
+        <v>461</v>
       </c>
       <c r="D87">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3460,13 +3145,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>583</v>
+        <v>458</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3474,13 +3159,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="C89" t="s">
-        <v>571</v>
+        <v>457</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3488,13 +3173,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="C90" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="D90">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3502,13 +3187,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="C91" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
       <c r="D91">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3516,13 +3201,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="C92" t="s">
-        <v>584</v>
+        <v>481</v>
       </c>
       <c r="D92">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3530,13 +3215,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>368</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
       <c r="D93">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3544,13 +3229,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
-        <v>552</v>
+        <v>487</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3558,13 +3243,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="C95" t="s">
-        <v>561</v>
+        <v>456</v>
       </c>
       <c r="D95">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3572,13 +3257,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>565</v>
+        <v>477</v>
       </c>
       <c r="D96">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3586,13 +3271,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="C97" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3600,13 +3285,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="C98" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3614,13 +3299,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="C99" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3628,13 +3313,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="C100" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3642,13 +3327,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="C101" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="D101">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3656,13 +3341,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="C102" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3670,13 +3355,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="C103" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3684,13 +3369,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="C104" t="s">
-        <v>570</v>
+        <v>456</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3698,13 +3383,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C105" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3712,13 +3397,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="C106" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3726,13 +3411,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>562</v>
+        <v>457</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3740,13 +3425,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>585</v>
+        <v>492</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3754,13 +3439,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="C109" t="s">
-        <v>558</v>
+        <v>456</v>
       </c>
       <c r="D109">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3768,13 +3453,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="C110" t="s">
-        <v>586</v>
+        <v>493</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3782,13 +3467,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
-        <v>564</v>
+        <v>458</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3796,13 +3481,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="C112" t="s">
-        <v>576</v>
+        <v>456</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3810,13 +3495,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="C113" t="s">
-        <v>587</v>
+        <v>468</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3824,13 +3509,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="C114" t="s">
-        <v>574</v>
+        <v>468</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3838,13 +3523,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="C115" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3852,13 +3537,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C116" t="s">
-        <v>551</v>
+        <v>457</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3866,13 +3551,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="C117" t="s">
-        <v>588</v>
+        <v>468</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3880,13 +3565,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="C118" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3894,13 +3579,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3908,13 +3593,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="C120" t="s">
-        <v>589</v>
+        <v>481</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3922,13 +3607,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="C121" t="s">
-        <v>590</v>
+        <v>457</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3936,13 +3621,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="C122" t="s">
-        <v>561</v>
+        <v>456</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3950,13 +3635,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="C123" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3964,13 +3649,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3978,13 +3663,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3992,13 +3677,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="C126" t="s">
-        <v>573</v>
+        <v>458</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4006,13 +3691,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="C127" t="s">
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4020,13 +3705,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="C128" t="s">
-        <v>591</v>
+        <v>470</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4034,13 +3719,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="C129" t="s">
-        <v>564</v>
+        <v>456</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4048,13 +3733,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="C130" t="s">
-        <v>553</v>
+        <v>481</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4062,13 +3747,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="C131" t="s">
-        <v>592</v>
+        <v>472</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4076,13 +3761,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="C132" t="s">
-        <v>593</v>
+        <v>477</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4090,13 +3775,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="C133" t="s">
-        <v>594</v>
+        <v>468</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4104,13 +3789,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C134" t="s">
-        <v>595</v>
+        <v>497</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4118,13 +3803,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C135" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4132,13 +3817,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="C136" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4146,13 +3831,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="C137" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4160,13 +3845,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="C138" t="s">
-        <v>562</v>
+        <v>456</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4174,13 +3859,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="C139" t="s">
-        <v>591</v>
+        <v>470</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4188,13 +3873,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>596</v>
+        <v>499</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4202,13 +3887,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4216,13 +3901,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="C142" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4230,13 +3915,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="C143" t="s">
-        <v>597</v>
+        <v>468</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4244,13 +3929,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="C144" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4258,13 +3943,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="C145" t="s">
-        <v>591</v>
+        <v>458</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4272,13 +3957,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="C146" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4286,13 +3971,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="C147" t="s">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4300,13 +3985,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="C148" t="s">
-        <v>582</v>
+        <v>502</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4314,13 +3999,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="C149" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4328,13 +4013,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="C150" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4342,13 +4027,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="C151" t="s">
-        <v>553</v>
+        <v>475</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4356,13 +4041,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="C152" t="s">
-        <v>551</v>
+        <v>503</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4370,13 +4055,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="C153" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4384,13 +4069,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="C154" t="s">
-        <v>598</v>
+        <v>504</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4398,13 +4083,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="C155" t="s">
-        <v>574</v>
+        <v>473</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4412,13 +4097,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="C156" t="s">
-        <v>599</v>
+        <v>456</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4426,13 +4111,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="C157" t="s">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4440,13 +4125,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="C158" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4454,13 +4139,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="C159" t="s">
-        <v>562</v>
+        <v>458</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4468,13 +4153,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="C160" t="s">
-        <v>600</v>
+        <v>477</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4482,13 +4167,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="C161" t="s">
-        <v>574</v>
+        <v>457</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4496,13 +4181,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="C162" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4510,13 +4195,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="C163" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4524,13 +4209,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4538,13 +4223,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="C165" t="s">
-        <v>583</v>
+        <v>458</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4552,13 +4237,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="C166" t="s">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4566,13 +4251,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C167" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4580,13 +4265,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="C168" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4594,13 +4279,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="C169" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4608,13 +4293,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="C170" t="s">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4622,13 +4307,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="C171" t="s">
-        <v>602</v>
+        <v>480</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4636,13 +4321,13 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="C172" t="s">
-        <v>564</v>
+        <v>506</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4650,13 +4335,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C173" t="s">
-        <v>574</v>
+        <v>508</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4664,13 +4349,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C174" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4678,13 +4363,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="C175" t="s">
-        <v>603</v>
+        <v>480</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4692,13 +4377,13 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="C176" t="s">
-        <v>576</v>
+        <v>456</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4706,13 +4391,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="C177" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4720,10 +4405,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="C178" t="s">
-        <v>604</v>
+        <v>468</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -4734,10 +4419,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s">
-        <v>553</v>
+        <v>480</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4748,10 +4433,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="C180" t="s">
-        <v>605</v>
+        <v>502</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4762,10 +4447,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="C181" t="s">
-        <v>606</v>
+        <v>510</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4776,10 +4461,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="C182" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -4790,10 +4475,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="C183" t="s">
-        <v>551</v>
+        <v>488</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4804,10 +4489,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
+        <v>409</v>
+      </c>
+      <c r="C184" t="s">
         <v>457</v>
-      </c>
-      <c r="C184" t="s">
-        <v>607</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4818,10 +4503,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="C185" t="s">
-        <v>608</v>
+        <v>480</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4832,10 +4517,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="C186" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4846,10 +4531,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="C187" t="s">
-        <v>574</v>
+        <v>475</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4860,10 +4545,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="C188" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4874,10 +4559,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="C189" t="s">
-        <v>573</v>
+        <v>456</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4888,10 +4573,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="C190" t="s">
-        <v>605</v>
+        <v>477</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -4902,10 +4587,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="C191" t="s">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4916,10 +4601,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="C192" t="s">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -4930,10 +4615,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="C193" t="s">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -4944,10 +4629,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="C194" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4958,10 +4643,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="C195" t="s">
-        <v>579</v>
+        <v>454</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -4972,10 +4657,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="C196" t="s">
-        <v>576</v>
+        <v>494</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -4986,10 +4671,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="C197" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -5000,10 +4685,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="C198" t="s">
-        <v>579</v>
+        <v>481</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -5014,10 +4699,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="C199" t="s">
-        <v>573</v>
+        <v>508</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -5028,10 +4713,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="C200" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -5042,10 +4727,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="C201" t="s">
-        <v>610</v>
+        <v>468</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5056,10 +4741,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
       <c r="C202" t="s">
-        <v>611</v>
+        <v>458</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -5070,10 +4755,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="C203" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5084,10 +4769,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="C204" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -5098,10 +4783,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C205" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -5112,10 +4797,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="C206" t="s">
-        <v>586</v>
+        <v>512</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -5126,10 +4811,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="C207" t="s">
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5140,10 +4825,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
+        <v>433</v>
+      </c>
+      <c r="C208" t="s">
         <v>481</v>
-      </c>
-      <c r="C208" t="s">
-        <v>553</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5154,10 +4839,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="C209" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -5168,10 +4853,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="C210" t="s">
-        <v>612</v>
+        <v>458</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -5182,10 +4867,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="C211" t="s">
-        <v>607</v>
+        <v>514</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5196,10 +4881,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="C212" t="s">
-        <v>562</v>
+        <v>468</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -5210,10 +4895,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="C213" t="s">
-        <v>613</v>
+        <v>468</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5224,10 +4909,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="C214" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5238,10 +4923,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="C215" t="s">
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5252,10 +4937,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="C216" t="s">
-        <v>594</v>
+        <v>456</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -5266,10 +4951,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="C217" t="s">
-        <v>573</v>
+        <v>457</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5280,10 +4965,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="C218" t="s">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -5294,10 +4979,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="C219" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -5308,10 +4993,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>610</v>
+        <v>475</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -5322,10 +5007,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="C221" t="s">
-        <v>574</v>
+        <v>473</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -5336,10 +5021,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="C222" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -5350,10 +5035,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C223" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -5364,10 +5049,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="C224" t="s">
-        <v>614</v>
+        <v>456</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -5378,10 +5063,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>508</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -5392,10 +5077,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="C226" t="s">
-        <v>615</v>
+        <v>512</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -5406,10 +5091,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="C227" t="s">
-        <v>616</v>
+        <v>494</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -5420,684 +5105,12 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="C228" t="s">
-        <v>615</v>
+        <v>457</v>
       </c>
       <c r="D228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>231</v>
-      </c>
-      <c r="B229" t="s">
-        <v>501</v>
-      </c>
-      <c r="C229" t="s">
-        <v>607</v>
-      </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>232</v>
-      </c>
-      <c r="B230" t="s">
-        <v>502</v>
-      </c>
-      <c r="C230" t="s">
-        <v>566</v>
-      </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
-        <v>233</v>
-      </c>
-      <c r="B231" t="s">
-        <v>503</v>
-      </c>
-      <c r="C231" t="s">
-        <v>573</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>234</v>
-      </c>
-      <c r="B232" t="s">
-        <v>504</v>
-      </c>
-      <c r="C232" t="s">
-        <v>605</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
-        <v>235</v>
-      </c>
-      <c r="B233" t="s">
-        <v>505</v>
-      </c>
-      <c r="C233" t="s">
-        <v>551</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234" t="s">
-        <v>506</v>
-      </c>
-      <c r="C234" t="s">
-        <v>608</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
-        <v>237</v>
-      </c>
-      <c r="B235" t="s">
-        <v>507</v>
-      </c>
-      <c r="C235" t="s">
-        <v>564</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
-        <v>238</v>
-      </c>
-      <c r="B236" t="s">
-        <v>508</v>
-      </c>
-      <c r="C236" t="s">
-        <v>564</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
-        <v>239</v>
-      </c>
-      <c r="B237" t="s">
-        <v>509</v>
-      </c>
-      <c r="C237" t="s">
-        <v>553</v>
-      </c>
-      <c r="D237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
-        <v>240</v>
-      </c>
-      <c r="B238" t="s">
-        <v>510</v>
-      </c>
-      <c r="C238" t="s">
-        <v>551</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>241</v>
-      </c>
-      <c r="B239" t="s">
-        <v>511</v>
-      </c>
-      <c r="C239" t="s">
-        <v>583</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>242</v>
-      </c>
-      <c r="B240" t="s">
-        <v>512</v>
-      </c>
-      <c r="C240" t="s">
-        <v>558</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>243</v>
-      </c>
-      <c r="B241" t="s">
-        <v>513</v>
-      </c>
-      <c r="C241" t="s">
-        <v>551</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>244</v>
-      </c>
-      <c r="B242" t="s">
-        <v>514</v>
-      </c>
-      <c r="C242" t="s">
-        <v>579</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>245</v>
-      </c>
-      <c r="B243" t="s">
-        <v>515</v>
-      </c>
-      <c r="C243" t="s">
-        <v>551</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>246</v>
-      </c>
-      <c r="B244" t="s">
-        <v>516</v>
-      </c>
-      <c r="C244" t="s">
-        <v>574</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
-        <v>247</v>
-      </c>
-      <c r="B245" t="s">
-        <v>517</v>
-      </c>
-      <c r="C245" t="s">
-        <v>613</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>248</v>
-      </c>
-      <c r="B246" t="s">
-        <v>518</v>
-      </c>
-      <c r="C246" t="s">
-        <v>579</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
-        <v>249</v>
-      </c>
-      <c r="B247" t="s">
-        <v>519</v>
-      </c>
-      <c r="C247" t="s">
-        <v>574</v>
-      </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
-        <v>250</v>
-      </c>
-      <c r="B248" t="s">
-        <v>520</v>
-      </c>
-      <c r="C248" t="s">
-        <v>558</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
-        <v>251</v>
-      </c>
-      <c r="B249" t="s">
-        <v>521</v>
-      </c>
-      <c r="C249" t="s">
-        <v>580</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
-        <v>252</v>
-      </c>
-      <c r="B250" t="s">
-        <v>522</v>
-      </c>
-      <c r="C250" t="s">
-        <v>617</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
-        <v>253</v>
-      </c>
-      <c r="B251" t="s">
-        <v>523</v>
-      </c>
-      <c r="C251" t="s">
-        <v>574</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
-        <v>254</v>
-      </c>
-      <c r="B252" t="s">
-        <v>524</v>
-      </c>
-      <c r="C252" t="s">
-        <v>608</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
-        <v>255</v>
-      </c>
-      <c r="B253" t="s">
-        <v>525</v>
-      </c>
-      <c r="C253" t="s">
-        <v>574</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
-        <v>256</v>
-      </c>
-      <c r="B254" t="s">
-        <v>526</v>
-      </c>
-      <c r="C254" t="s">
-        <v>561</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
-        <v>257</v>
-      </c>
-      <c r="B255" t="s">
-        <v>527</v>
-      </c>
-      <c r="C255" t="s">
-        <v>562</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
-        <v>258</v>
-      </c>
-      <c r="B256" t="s">
-        <v>528</v>
-      </c>
-      <c r="C256" t="s">
-        <v>574</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
-        <v>259</v>
-      </c>
-      <c r="B257" t="s">
-        <v>529</v>
-      </c>
-      <c r="C257" t="s">
-        <v>551</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
-        <v>260</v>
-      </c>
-      <c r="B258" t="s">
-        <v>530</v>
-      </c>
-      <c r="C258" t="s">
-        <v>615</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
-        <v>261</v>
-      </c>
-      <c r="B259" t="s">
-        <v>531</v>
-      </c>
-      <c r="C259" t="s">
-        <v>561</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
-        <v>262</v>
-      </c>
-      <c r="B260" t="s">
-        <v>532</v>
-      </c>
-      <c r="C260" t="s">
-        <v>551</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
-        <v>263</v>
-      </c>
-      <c r="B261" t="s">
-        <v>533</v>
-      </c>
-      <c r="C261" t="s">
-        <v>613</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
-        <v>264</v>
-      </c>
-      <c r="B262" t="s">
-        <v>534</v>
-      </c>
-      <c r="C262" t="s">
-        <v>583</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
-        <v>265</v>
-      </c>
-      <c r="B263" t="s">
-        <v>535</v>
-      </c>
-      <c r="C263" t="s">
-        <v>594</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
-        <v>266</v>
-      </c>
-      <c r="B264" t="s">
-        <v>536</v>
-      </c>
-      <c r="C264" t="s">
-        <v>551</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
-        <v>267</v>
-      </c>
-      <c r="B265" t="s">
-        <v>537</v>
-      </c>
-      <c r="C265" t="s">
-        <v>574</v>
-      </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
-        <v>268</v>
-      </c>
-      <c r="B266" t="s">
-        <v>538</v>
-      </c>
-      <c r="C266" t="s">
-        <v>564</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
-        <v>269</v>
-      </c>
-      <c r="B267" t="s">
-        <v>539</v>
-      </c>
-      <c r="C267" t="s">
-        <v>551</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
-        <v>270</v>
-      </c>
-      <c r="B268" t="s">
-        <v>540</v>
-      </c>
-      <c r="C268" t="s">
-        <v>551</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
-        <v>271</v>
-      </c>
-      <c r="B269" t="s">
-        <v>541</v>
-      </c>
-      <c r="C269" t="s">
-        <v>564</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
-        <v>272</v>
-      </c>
-      <c r="B270" t="s">
-        <v>542</v>
-      </c>
-      <c r="C270" t="s">
-        <v>564</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" t="s">
-        <v>273</v>
-      </c>
-      <c r="B271" t="s">
-        <v>543</v>
-      </c>
-      <c r="C271" t="s">
-        <v>579</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" t="s">
-        <v>274</v>
-      </c>
-      <c r="B272" t="s">
-        <v>544</v>
-      </c>
-      <c r="C272" t="s">
-        <v>618</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" t="s">
-        <v>275</v>
-      </c>
-      <c r="B273" t="s">
-        <v>545</v>
-      </c>
-      <c r="C273" t="s">
-        <v>587</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
-        <v>276</v>
-      </c>
-      <c r="B274" t="s">
-        <v>546</v>
-      </c>
-      <c r="C274" t="s">
-        <v>552</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" t="s">
-        <v>277</v>
-      </c>
-      <c r="B275" t="s">
-        <v>547</v>
-      </c>
-      <c r="C275" t="s">
-        <v>579</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" t="s">
-        <v>278</v>
-      </c>
-      <c r="B276" t="s">
-        <v>548</v>
-      </c>
-      <c r="C276" t="s">
-        <v>619</v>
-      </c>
-      <c r="D276">
         <v>0</v>
       </c>
     </row>
